--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN5_190424/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN5_0_1_040924/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AB6302-6937-2346-8541-07D352CE4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B9AFF-61AC-A645-9D9B-9F2085C5C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{88874649-CF48-6C40-9C99-818FFFDD80F5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>version</t>
   </si>
@@ -169,10 +169,14 @@
     <t>v5.0.1</t>
   </si>
   <si>
-    <t>Minimal chanceg to sample table</t>
-  </si>
-  <si>
-    <t>Abstract submitted to IUMS 2024</t>
+    <t>Parente, E., Ricciardi, A., 2024. A Comprehensive View of Food Microbiota: Introducing
+FoodMicrobionet v5. Foods, 13, 1689. https://doi.org/10.3390/foods13111689</t>
+  </si>
+  <si>
+    <t>Abstract submitted to ECCO 2024</t>
+  </si>
+  <si>
+    <t>Minimal chances to sample table, added 20 strudies (6 on fungi, 2 on bacteria, 12 on bacteria and fungi) ,removed duplicated samples for ST137</t>
   </si>
 </sst>
 </file>
@@ -539,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8BFC5B-0EE3-BA47-8E19-921BB7D9B95E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -733,15 +737,15 @@
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>45</v>

--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN5_0_1_040924/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1_1/FMBN5_1_1_140625/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B9AFF-61AC-A645-9D9B-9F2085C5C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B19319B-A676-6642-BBFB-52B95CC6BA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{88874649-CF48-6C40-9C99-818FFFDD80F5}"/>
+    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{27936CBC-113D-2443-8720-443FCD4F8EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>version</t>
   </si>
@@ -49,114 +49,114 @@
     <t>v0.6.2</t>
   </si>
   <si>
+    <t>The first proof of concept version. It includes data from 9 published and unpublished studies on dairy products and dairy starter cultures. The network includes 879 nodes (262 sample nodes and 617 OTU nodes) with 6,015 edges (OTU-sample connections). Click here to access the web visualisation. This version is unpublished.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first public version. It includes data from 17 published and unpublished studies on dairy foods, meat, sourdoughs and fermented vegetable products (olives). The network includes 552 sample and 964 OTU nodes, with 18,115 OTU-sample interactions, and is by far the largest repository of data on bacterial communities in foods. </t>
+  </si>
+  <si>
+    <t>Parente E., Cocolin L., De Filippis, F., Zotta T., Ferrocino I., Neviani E., De Angelis M., Di Cagno R., Cotter P. D., Ercolini D. 2015. FoodMicrobionet: a tool for the visualisation and analysis of the structure of bacterial food microbial communities. 3rd International Conference on Microbial Diversity, Perugia, October 27-29, 2015.</t>
+  </si>
+  <si>
+    <t>v1.0.3</t>
+  </si>
+  <si>
+    <t>includes minor updates to the previous version (including updates to references for published studies</t>
+  </si>
+  <si>
+    <t>v1.0.3g</t>
+  </si>
+  <si>
+    <t>a “robust” version of v 1.0.3. In this version the nodes for OTUs identified as belonging to the same genus were merged and low abundance (&lt;0.1%) OTUs were removed from each sample. This might alleviate the problems related to comparison of studies in which different bioinformatics platfors were used</t>
+  </si>
+  <si>
+    <t>Parente E., Cocolin L., De Filippis F., Zotta T., Ferrocino I., O’Sullivan O.,  Neviani E., De Angelis M., Cotter P. D., Ercolini D. 2016. FoodMicrobionet: A database for the visualisation and exploration of food bacterial communities based on network analysis. International Journal of Food Microbiology, 219: 28-37 doi:10.1016/j.ijfoodmicro.2015.12.001</t>
+  </si>
+  <si>
     <t>v1.1</t>
   </si>
   <si>
-    <t>v1.0.3</t>
+    <t>an intermediate version which has been presented as a poster at FoodMicro 2016, in Dublin. Minor changes: Corrected an error in weights for BioProject SRP052240 (weights were twice their real value). Checked and corrected all weights for minor rounding errors. Solved a problem related to OTU node merging in Gephi. Corrected wrong labels for some OTUs. Major changes: Added 493 samples from 8 studies. Revised specification for node tables. Introduced “Environment” nodes</t>
+  </si>
+  <si>
+    <t>Parente E., De Filippis F., Zotta T., Cotter P., O’Sullivan O., Puglisi E., Ercolini D. 2016. FoodMicrobionet 1.1.6: a network analysis tool for the exploration of food bacterial communities. Food Micro 2016 Abstract Book, Dublin, IRL, July 19-22, 2016. PO2-FS-080</t>
   </si>
   <si>
     <t>v2</t>
   </si>
   <si>
+    <t>a significantly improved version. It includes 33 studies, 29 of which have been published or are about to be published. With 3929 nodes (2204 OTU nodes, 1413 Food samples, from 59 food types, 312 Food environment nodes) and 87197 connections between OTU and Sample/Environment nodes, FMBN is by far the largest repository of data on the bacterial microbiota of foods. Most data were obtained with similar sequencing platforms, gene targets and bioinformatic pipelines, and were either provided directly by the participating groups or obtained by analysing publicly available bioprojects. Refer to the projects table and edge and node specifications for more details. Minor changes: Corrected mismatches for some samples and bioprojects. Fixed outlinks for sequences deposited in NCBI BioProject database. Corrected a few inconsistencies in lineages and in fields for food classification. Major changes. Revised specification for node and edges tables. Added 672 samples from 8 studies. Added Nreads, Shannon and Chao1 whenever available, otherwise Nreads set to 2999.</t>
+  </si>
+  <si>
+    <t>v2.0.2</t>
+  </si>
+  <si>
+    <t>Minor changes: Fixed problems with inconsistent lineages for a few OTU nodes. Major changes: Revised specification for node and edges tables: now you can use Custom1 to 3 fields for more efficient filtering and application of styles. A web visualisation of the filtered network (weighted degree &gt;17) is available here. This version will allow a better integration with the Bipartite package of R and with the CoNet app of Cytoscape</t>
+  </si>
+  <si>
+    <t>v2.0.3</t>
+  </si>
+  <si>
+    <t>Minor changes: Changed FoodId for study 11 (A01QX-&gt;A049Q). Added number of reads for some samples. Removed a few duplicates in lineages. Expanded the definition for llabel. Table specifications are here. Project table is here. Edge and nodes tables are here. Accessibility is now much improved, using R scripts</t>
+  </si>
+  <si>
+    <t>De Filippis, F., Parente, E., Zotta, T., Ercolini, D., 2018. A comparison of bioinformatic approaches for 16S rRNA gene profiling of food bacterial microbiota. International Journal of Food Microbiology 265, 9–17. https://doi.org/10.1016/j.ijfoodmicro.2017.10.028</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>Major changes in the structure of the tables and first release of the app</t>
+  </si>
+  <si>
     <t>v3.1</t>
   </si>
   <si>
+    <t>There are 44 studies and 2233 samples in this version of FoodMicrobionet. The samples belong to 9 major food groups and 76 different foods. There are 148 different combinations of food, nature, process, fermentation/spoilage. 3411 taxa have been identified at different taxonomic levels. This makes it by far the largest set of data on bacterial communities in foods (as of January 2019). The ShinyFMBN app was also updated and provides better integration with external resources.  You will be able to access it on Mendeley data. The app (version 1.2, which is compatible with R3.6 and the new installation procedure of Bioconductor packages), the database and a few other things are available at Mendeley data</t>
+  </si>
+  <si>
+    <t>Parente, E., De Filippis, F., Ercolini, D., Ricciardi, A., Zotta, T., 2019. Advancing integration of data on food microbiome studies: FoodMicrobionet 3.1, a major upgrade of the FoodMicrobionet database. International Journal of Food Microbiology, 305 (September 2019): 108249 DOI: 10.1016/j.ijfoodmicro.2019.108249.</t>
+  </si>
+  <si>
+    <t>v3.2.3</t>
+  </si>
+  <si>
+    <t>Minor additions</t>
+  </si>
+  <si>
+    <t>v3.2.6</t>
+  </si>
+  <si>
+    <t>Major changes to the taxonomic table of the database, which is now compatible with SILVA taxonomy. Although SILVA taxonomy does not match the taxonomy in the List of Prokaryotic names with Standing in Nomenclature the change was necessary because new studies in FoodMicrobionet are processed using SILVA v138 and this was causing inconsistencies in the higher level taxonomy of taxa (i.e. the same genus might potentially have a different lineage depending on when it was added to the database) and this, in turn, would prevent correct aggregation at levels higher than genus.</t>
+  </si>
+  <si>
+    <t>v4.1.2</t>
+  </si>
+  <si>
+    <t>Major changes to the tables, and a significant number of studies and samples added</t>
+  </si>
+  <si>
+    <t>Parente, E., Zotta, T., Ricciardi, A., 2022. FoodMicrobionet v4: A large, integrated, open and transparent database for food bacterial communities. Int J Food Microbiol 372, 109696. https://doi.org/10.1016/j.ijfoodmicro.2022.109696</t>
+  </si>
+  <si>
     <t>v4.2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>v1.0.2</t>
-  </si>
-  <si>
-    <t>The first proof of concept version. It includes data from 9 published and unpublished studies on dairy products and dairy starter cultures. The network includes 879 nodes (262 sample nodes and 617 OTU nodes) with 6,015 edges (OTU-sample connections). Click here to access the web visualisation. This version is unpublished.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the first public version. It includes data from 17 published and unpublished studies on dairy foods, meat, sourdoughs and fermented vegetable products (olives). The network includes 552 sample and 964 OTU nodes, with 18,115 OTU-sample interactions, and is by far the largest repository of data on bacterial communities in foods. </t>
-  </si>
-  <si>
-    <t>Parente E., Cocolin L., De Filippis, F., Zotta T., Ferrocino I., Neviani E., De Angelis M., Di Cagno R., Cotter P. D., Ercolini D. 2015. FoodMicrobionet: a tool for the visualisation and analysis of the structure of bacterial food microbial communities. 3rd International Conference on Microbial Diversity, Perugia, October 27-29, 2015.</t>
-  </si>
-  <si>
-    <t>includes minor updates to the previous version (including updates to references for published studies</t>
-  </si>
-  <si>
-    <t>v1.0.3g</t>
-  </si>
-  <si>
-    <t>a “robust” version of v 1.0.3. In this version the nodes for OTUs identified as belonging to the same genus were merged and low abundance (&lt;0.1%) OTUs were removed from each sample. This might alleviate the problems related to comparison of studies in which different bioinformatics platfors were used</t>
-  </si>
-  <si>
-    <t>Parente E., Cocolin L., De Filippis F., Zotta T., Ferrocino I., O’Sullivan O.,  Neviani E., De Angelis M., Cotter P. D., Ercolini D. 2016. FoodMicrobionet: A database for the visualisation and exploration of food bacterial communities based on network analysis. International Journal of Food Microbiology, 219: 28-37 doi:10.1016/j.ijfoodmicro.2015.12.001</t>
-  </si>
-  <si>
-    <t>an intermediate version which has been presented as a poster at FoodMicro 2016, in Dublin. Minor changes: Corrected an error in weights for BioProject SRP052240 (weights were twice their real value). Checked and corrected all weights for minor rounding errors. Solved a problem related to OTU node merging in Gephi. Corrected wrong labels for some OTUs. Major changes: Added 493 samples from 8 studies. Revised specification for node tables. Introduced “Environment” nodes</t>
-  </si>
-  <si>
-    <t>Parente E., De Filippis F., Zotta T., Cotter P., O’Sullivan O., Puglisi E., Ercolini D. 2016. FoodMicrobionet 1.1.6: a network analysis tool for the exploration of food bacterial communities. Food Micro 2016 Abstract Book, Dublin, IRL, July 19-22, 2016. PO2-FS-080</t>
-  </si>
-  <si>
-    <t>a significantly improved version. It includes 33 studies, 29 of which have been published or are about to be published. With 3929 nodes (2204 OTU nodes, 1413 Food samples, from 59 food types, 312 Food environment nodes) and 87197 connections between OTU and Sample/Environment nodes, FMBN is by far the largest repository of data on the bacterial microbiota of foods. Most data were obtained with similar sequencing platforms, gene targets and bioinformatic pipelines, and were either provided directly by the participating groups or obtained by analysing publicly available bioprojects. Refer to the projects table and edge and node specifications for more details. Minor changes: Corrected mismatches for some samples and bioprojects. Fixed outlinks for sequences deposited in NCBI BioProject database. Corrected a few inconsistencies in lineages and in fields for food classification. Major changes. Revised specification for node and edges tables. Added 672 samples from 8 studies. Added Nreads, Shannon and Chao1 whenever available, otherwise Nreads set to 2999.</t>
-  </si>
-  <si>
-    <t>v2.0.2</t>
-  </si>
-  <si>
-    <t>Minor changes: Fixed problems with inconsistent lineages for a few OTU nodes. Major changes: Revised specification for node and edges tables: now you can use Custom1 to 3 fields for more efficient filtering and application of styles. A web visualisation of the filtered network (weighted degree &gt;17) is available here. This version will allow a better integration with the Bipartite package of R and with the CoNet app of Cytoscape</t>
-  </si>
-  <si>
-    <t>v2.0.3</t>
-  </si>
-  <si>
-    <t>Minor changes: Changed FoodId for study 11 (A01QX-&gt;A049Q). Added number of reads for some samples. Removed a few duplicates in lineages. Expanded the definition for llabel. Table specifications are here. Project table is here. Edge and nodes tables are here. Accessibility is now much improved, using R scripts</t>
-  </si>
-  <si>
-    <t>Major changes in the structure of the tables and first release of the app</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>Parente, E., De Filippis, F., Ercolini, D., Ricciardi, A., Zotta, T., 2019. Advancing integration of data on food microbiome studies: FoodMicrobionet 3.1, a major upgrade of the FoodMicrobionet database. International Journal of Food Microbiology, 305 (September 2019): 108249 DOI: 10.1016/j.ijfoodmicro.2019.108249.</t>
-  </si>
-  <si>
-    <t>There are 44 studies and 2233 samples in this version of FoodMicrobionet. The samples belong to 9 major food groups and 76 different foods. There are 148 different combinations of food, nature, process, fermentation/spoilage. 3411 taxa have been identified at different taxonomic levels. This makes it by far the largest set of data on bacterial communities in foods (as of January 2019). The ShinyFMBN app was also updated and provides better integration with external resources.  You will be able to access it on Mendeley data. The app (version 1.2, which is compatible with R3.6 and the new installation procedure of Bioconductor packages), the database and a few other things are available at Mendeley data</t>
-  </si>
-  <si>
-    <t>v3.2.3</t>
-  </si>
-  <si>
-    <t>Minor additions</t>
-  </si>
-  <si>
-    <t>v3.2.6</t>
-  </si>
-  <si>
-    <t>Major changes to the taxonomic table of the database, which is now compatible with SILVA taxonomy. Although SILVA taxonomy does not match the taxonomy in the List of Prokaryotic names with Standing in Nomenclature the change was necessary because new studies in FoodMicrobionet are processed using SILVA v138 and this was causing inconsistencies in the higher level taxonomy of taxa (i.e. the same genus might potentially have a different lineage depending on when it was added to the database) and this, in turn, would prevent correct aggregation at levels higher than genus.</t>
-  </si>
-  <si>
-    <t>Parente, E., Zotta, T., Ricciardi, A., 2022. FoodMicrobionet v4: A large, integrated, open and transparent database for food bacterial communities. Int J Food Microbiol 372, 109696. https://doi.org/10.1016/j.ijfoodmicro.2022.109696</t>
-  </si>
-  <si>
-    <t>v4.1.2</t>
-  </si>
-  <si>
-    <t>Major changes to the tables, and a significant number of studies and samples added</t>
-  </si>
-  <si>
-    <t>De Filippis, F., Parente, E., Zotta, T., Ercolini, D., 2018. A comparison of bioinformatic approaches for 16S rRNA gene profiling of food bacterial microbiota. International Journal of Food Microbiology 265, 9–17. https://doi.org/10.1016/j.ijfoodmicro.2017.10.028</t>
-  </si>
-  <si>
     <t>Added version table and 21 studies; fixed links to Omnicrobe (formerly Florilege)</t>
   </si>
   <si>
+    <t>Parente, E., Zotta, T., Giavalisco, M., Ricciardi, A., 2023. Metataxonomic insights in the distribution of Lactobacillaceae in foods and food environments. Int J Food Microbiol 391, 110124. https://doi.org/10.1016/j.ijfoodmicro.2023.110124</t>
+  </si>
+  <si>
     <t>v4.2.1</t>
   </si>
   <si>
-    <t>Parente, E., Zotta, T., Giavalisco, M., Ricciardi, A., 2023. Metataxonomic insights in the distribution of Lactobacillaceae in foods and food environments. Int J Food Microbiol 391, 110124. https://doi.org/10.1016/j.ijfoodmicro.2023.110124</t>
-  </si>
-  <si>
     <t>Added 22 studies and 1147 samples. Mock communities and blanks are now properly identified with a specific FoodId. The edge table size exceeded the size which Excel can manage and is now in tab delimited format. A new field (study type) was added to the study table. Minor fixes to sample metadata (ST117, ST148). Fixed a few problems with wrong DOIs. Fixed L6 for a few samples; fixed a problem with SRA_run for some studies</t>
   </si>
   <si>
@@ -166,33 +166,41 @@
     <t>Added Fungi to the database (with major revision of tables); added 18 more studies and added fungi for 7 existing studies</t>
   </si>
   <si>
+    <t>Parente, E., Ricciardi, A., 2024. A comprehensive view of food microbiota: introducing
+FoodMicrobionet v5. Foods, 13, 1689. https://doi.org/10.3390/foods13111689</t>
+  </si>
+  <si>
     <t>v5.0.1</t>
   </si>
   <si>
-    <t>Parente, E., Ricciardi, A., 2024. A Comprehensive View of Food Microbiota: Introducing
-FoodMicrobionet v5. Foods, 13, 1689. https://doi.org/10.3390/foods13111689</t>
+    <t>Minimal chances to sample table, added 20 strudies (6 on fungi, 2 on bacteria, 12 on bacteria and fungi) ,removed duplicated samples for ST137</t>
   </si>
   <si>
     <t>Abstract submitted to ECCO 2024</t>
   </si>
   <si>
-    <t>Minimal chances to sample table, added 20 strudies (6 on fungi, 2 on bacteria, 12 on bacteria and fungi) ,removed duplicated samples for ST137</t>
+    <t>v5.1</t>
+  </si>
+  <si>
+    <t>Patched bacterial taxonomy to SILVA 138.2</t>
+  </si>
+  <si>
+    <t>v5_1_1</t>
+  </si>
+  <si>
+    <t>Added 18S and 26S studies, removed duplicated taxa, minor fixes to metadata. Includes 300 studies</t>
+  </si>
+  <si>
+    <t>Abstracts submitted to MD2025 and 1IFFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,14 +227,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,18 +542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8BFC5B-0EE3-BA47-8E19-921BB7D9B95E}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ED99-7C90-6749-9E7F-5E963C25F3F2}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -564,255 +562,214 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Version_history.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1_1/FMBN5_1_1_140625/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dati_EP_1/FMBN/FMBNv5/FMBN_5_1_2/FMBN_5_1_2_150925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B19319B-A676-6642-BBFB-52B95CC6BA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B7B1B-9089-B342-BD9E-23012B6AE06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{27936CBC-113D-2443-8720-443FCD4F8EB9}"/>
+    <workbookView xWindow="9120" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{88874649-CF48-6C40-9C99-818FFFDD80F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>version</t>
   </si>
@@ -49,24 +49,36 @@
     <t>v0.6.2</t>
   </si>
   <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>v1.0.3</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t>v4.2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+  </si>
+  <si>
     <t>The first proof of concept version. It includes data from 9 published and unpublished studies on dairy products and dairy starter cultures. The network includes 879 nodes (262 sample nodes and 617 OTU nodes) with 6,015 edges (OTU-sample connections). Click here to access the web visualisation. This version is unpublished.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>v1.0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">the first public version. It includes data from 17 published and unpublished studies on dairy foods, meat, sourdoughs and fermented vegetable products (olives). The network includes 552 sample and 964 OTU nodes, with 18,115 OTU-sample interactions, and is by far the largest repository of data on bacterial communities in foods. </t>
   </si>
   <si>
     <t>Parente E., Cocolin L., De Filippis, F., Zotta T., Ferrocino I., Neviani E., De Angelis M., Di Cagno R., Cotter P. D., Ercolini D. 2015. FoodMicrobionet: a tool for the visualisation and analysis of the structure of bacterial food microbial communities. 3rd International Conference on Microbial Diversity, Perugia, October 27-29, 2015.</t>
   </si>
   <si>
-    <t>v1.0.3</t>
-  </si>
-  <si>
     <t>includes minor updates to the previous version (including updates to references for published studies</t>
   </si>
   <si>
@@ -79,18 +91,12 @@
     <t>Parente E., Cocolin L., De Filippis F., Zotta T., Ferrocino I., O’Sullivan O.,  Neviani E., De Angelis M., Cotter P. D., Ercolini D. 2016. FoodMicrobionet: A database for the visualisation and exploration of food bacterial communities based on network analysis. International Journal of Food Microbiology, 219: 28-37 doi:10.1016/j.ijfoodmicro.2015.12.001</t>
   </si>
   <si>
-    <t>v1.1</t>
-  </si>
-  <si>
     <t>an intermediate version which has been presented as a poster at FoodMicro 2016, in Dublin. Minor changes: Corrected an error in weights for BioProject SRP052240 (weights were twice their real value). Checked and corrected all weights for minor rounding errors. Solved a problem related to OTU node merging in Gephi. Corrected wrong labels for some OTUs. Major changes: Added 493 samples from 8 studies. Revised specification for node tables. Introduced “Environment” nodes</t>
   </si>
   <si>
     <t>Parente E., De Filippis F., Zotta T., Cotter P., O’Sullivan O., Puglisi E., Ercolini D. 2016. FoodMicrobionet 1.1.6: a network analysis tool for the exploration of food bacterial communities. Food Micro 2016 Abstract Book, Dublin, IRL, July 19-22, 2016. PO2-FS-080</t>
   </si>
   <si>
-    <t>v2</t>
-  </si>
-  <si>
     <t>a significantly improved version. It includes 33 studies, 29 of which have been published or are about to be published. With 3929 nodes (2204 OTU nodes, 1413 Food samples, from 59 food types, 312 Food environment nodes) and 87197 connections between OTU and Sample/Environment nodes, FMBN is by far the largest repository of data on the bacterial microbiota of foods. Most data were obtained with similar sequencing platforms, gene targets and bioinformatic pipelines, and were either provided directly by the participating groups or obtained by analysing publicly available bioprojects. Refer to the projects table and edge and node specifications for more details. Minor changes: Corrected mismatches for some samples and bioprojects. Fixed outlinks for sequences deposited in NCBI BioProject database. Corrected a few inconsistencies in lineages and in fields for food classification. Major changes. Revised specification for node and edges tables. Added 672 samples from 8 studies. Added Nreads, Shannon and Chao1 whenever available, otherwise Nreads set to 2999.</t>
   </si>
   <si>
@@ -106,57 +112,51 @@
     <t>Minor changes: Changed FoodId for study 11 (A01QX-&gt;A049Q). Added number of reads for some samples. Removed a few duplicates in lineages. Expanded the definition for llabel. Table specifications are here. Project table is here. Edge and nodes tables are here. Accessibility is now much improved, using R scripts</t>
   </si>
   <si>
+    <t>Major changes in the structure of the tables and first release of the app</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>Parente, E., De Filippis, F., Ercolini, D., Ricciardi, A., Zotta, T., 2019. Advancing integration of data on food microbiome studies: FoodMicrobionet 3.1, a major upgrade of the FoodMicrobionet database. International Journal of Food Microbiology, 305 (September 2019): 108249 DOI: 10.1016/j.ijfoodmicro.2019.108249.</t>
+  </si>
+  <si>
+    <t>There are 44 studies and 2233 samples in this version of FoodMicrobionet. The samples belong to 9 major food groups and 76 different foods. There are 148 different combinations of food, nature, process, fermentation/spoilage. 3411 taxa have been identified at different taxonomic levels. This makes it by far the largest set of data on bacterial communities in foods (as of January 2019). The ShinyFMBN app was also updated and provides better integration with external resources.  You will be able to access it on Mendeley data. The app (version 1.2, which is compatible with R3.6 and the new installation procedure of Bioconductor packages), the database and a few other things are available at Mendeley data</t>
+  </si>
+  <si>
+    <t>v3.2.3</t>
+  </si>
+  <si>
+    <t>Minor additions</t>
+  </si>
+  <si>
+    <t>v3.2.6</t>
+  </si>
+  <si>
+    <t>Major changes to the taxonomic table of the database, which is now compatible with SILVA taxonomy. Although SILVA taxonomy does not match the taxonomy in the List of Prokaryotic names with Standing in Nomenclature the change was necessary because new studies in FoodMicrobionet are processed using SILVA v138 and this was causing inconsistencies in the higher level taxonomy of taxa (i.e. the same genus might potentially have a different lineage depending on when it was added to the database) and this, in turn, would prevent correct aggregation at levels higher than genus.</t>
+  </si>
+  <si>
+    <t>Parente, E., Zotta, T., Ricciardi, A., 2022. FoodMicrobionet v4: A large, integrated, open and transparent database for food bacterial communities. Int J Food Microbiol 372, 109696. https://doi.org/10.1016/j.ijfoodmicro.2022.109696</t>
+  </si>
+  <si>
+    <t>v4.1.2</t>
+  </si>
+  <si>
+    <t>Major changes to the tables, and a significant number of studies and samples added</t>
+  </si>
+  <si>
     <t>De Filippis, F., Parente, E., Zotta, T., Ercolini, D., 2018. A comparison of bioinformatic approaches for 16S rRNA gene profiling of food bacterial microbiota. International Journal of Food Microbiology 265, 9–17. https://doi.org/10.1016/j.ijfoodmicro.2017.10.028</t>
   </si>
   <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>Major changes in the structure of the tables and first release of the app</t>
-  </si>
-  <si>
-    <t>v3.1</t>
-  </si>
-  <si>
-    <t>There are 44 studies and 2233 samples in this version of FoodMicrobionet. The samples belong to 9 major food groups and 76 different foods. There are 148 different combinations of food, nature, process, fermentation/spoilage. 3411 taxa have been identified at different taxonomic levels. This makes it by far the largest set of data on bacterial communities in foods (as of January 2019). The ShinyFMBN app was also updated and provides better integration with external resources.  You will be able to access it on Mendeley data. The app (version 1.2, which is compatible with R3.6 and the new installation procedure of Bioconductor packages), the database and a few other things are available at Mendeley data</t>
-  </si>
-  <si>
-    <t>Parente, E., De Filippis, F., Ercolini, D., Ricciardi, A., Zotta, T., 2019. Advancing integration of data on food microbiome studies: FoodMicrobionet 3.1, a major upgrade of the FoodMicrobionet database. International Journal of Food Microbiology, 305 (September 2019): 108249 DOI: 10.1016/j.ijfoodmicro.2019.108249.</t>
-  </si>
-  <si>
-    <t>v3.2.3</t>
-  </si>
-  <si>
-    <t>Minor additions</t>
-  </si>
-  <si>
-    <t>v3.2.6</t>
-  </si>
-  <si>
-    <t>Major changes to the taxonomic table of the database, which is now compatible with SILVA taxonomy. Although SILVA taxonomy does not match the taxonomy in the List of Prokaryotic names with Standing in Nomenclature the change was necessary because new studies in FoodMicrobionet are processed using SILVA v138 and this was causing inconsistencies in the higher level taxonomy of taxa (i.e. the same genus might potentially have a different lineage depending on when it was added to the database) and this, in turn, would prevent correct aggregation at levels higher than genus.</t>
-  </si>
-  <si>
-    <t>v4.1.2</t>
-  </si>
-  <si>
-    <t>Major changes to the tables, and a significant number of studies and samples added</t>
-  </si>
-  <si>
-    <t>Parente, E., Zotta, T., Ricciardi, A., 2022. FoodMicrobionet v4: A large, integrated, open and transparent database for food bacterial communities. Int J Food Microbiol 372, 109696. https://doi.org/10.1016/j.ijfoodmicro.2022.109696</t>
-  </si>
-  <si>
-    <t>v4.2</t>
-  </si>
-  <si>
     <t>Added version table and 21 studies; fixed links to Omnicrobe (formerly Florilege)</t>
   </si>
   <si>
+    <t>v4.2.1</t>
+  </si>
+  <si>
     <t>Parente, E., Zotta, T., Giavalisco, M., Ricciardi, A., 2023. Metataxonomic insights in the distribution of Lactobacillaceae in foods and food environments. Int J Food Microbiol 391, 110124. https://doi.org/10.1016/j.ijfoodmicro.2023.110124</t>
   </si>
   <si>
-    <t>v4.2.1</t>
-  </si>
-  <si>
     <t>Added 22 studies and 1147 samples. Mock communities and blanks are now properly identified with a specific FoodId. The edge table size exceeded the size which Excel can manage and is now in tab delimited format. A new field (study type) was added to the study table. Minor fixes to sample metadata (ST117, ST148). Fixed a few problems with wrong DOIs. Fixed L6 for a few samples; fixed a problem with SRA_run for some studies</t>
   </si>
   <si>
@@ -164,21 +164,18 @@
   </si>
   <si>
     <t>Added Fungi to the database (with major revision of tables); added 18 more studies and added fungi for 7 existing studies</t>
+  </si>
+  <si>
+    <t>v5.0.1</t>
+  </si>
+  <si>
+    <t>Minimal chances to sample table, added 20 strudies (6 on fungi, 2 on bacteria, 12 on bacteria and fungi) ,removed duplicated samples for ST137</t>
   </si>
   <si>
     <t>Parente, E., Ricciardi, A., 2024. A comprehensive view of food microbiota: introducing
 FoodMicrobionet v5. Foods, 13, 1689. https://doi.org/10.3390/foods13111689</t>
   </si>
   <si>
-    <t>v5.0.1</t>
-  </si>
-  <si>
-    <t>Minimal chances to sample table, added 20 strudies (6 on fungi, 2 on bacteria, 12 on bacteria and fungi) ,removed duplicated samples for ST137</t>
-  </si>
-  <si>
-    <t>Abstract submitted to ECCO 2024</t>
-  </si>
-  <si>
     <t>v5.1</t>
   </si>
   <si>
@@ -191,16 +188,36 @@
     <t>Added 18S and 26S studies, removed duplicated taxa, minor fixes to metadata. Includes 300 studies</t>
   </si>
   <si>
-    <t>Abstracts submitted to MD2025 and 1IFFC</t>
+    <t>v5_1_2</t>
+  </si>
+  <si>
+    <t>Parente, E., Arroyo López, F. N., Ricciardi, A. 2025. OliveFMBN: an extensively annotated database of the microbiota of table olives. Proceedings of the International congress “Advances in the microbiology of table olives”, Università degli Studi della Basilicata, Matera, 1-2/9/2025, pp 57</t>
+  </si>
+  <si>
+    <t>Parente, E., Ricciardi, A., Turchetti, B., Di Cesare, F., Vitulo, N., Felis, G. E. 2024. Diversity of Non- Conventional Yeasts for innovating fermented beverages: investigating microbiomes. Proceedings of the ECCO XLII Meeting "Microbe &amp; Microbiome Management for a Better Planet", Bari 18-20/9/202424</t>
+  </si>
+  <si>
+    <t>Ricciardi, A., Labella M. G., Pietrafesa, R., De Vivo, A., De Filippis, F.,  Parente, E. 2025 Discovering the core microbiome of table olives.
+Proceedings of the international congress "Microbial diversity 2025", Rome, 23-26/9/2025</t>
+  </si>
+  <si>
+    <t>Added two further studies on olives; fixed a few problems with edges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,8 +244,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,14 +565,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ED99-7C90-6749-9E7F-5E963C25F3F2}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8BFC5B-0EE3-BA47-8E19-921BB7D9B95E}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -562,214 +589,273 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
